--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MachineLearning\FASTPAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB67E855-AB4D-4F44-B085-98B5846284D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A1B1EF-2B0B-42C2-8386-DF96551886EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A40601C-6529-4D32-B31F-70711143F015}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,6 +465,12 @@
       <c r="C2">
         <v>84641.883939461797</v>
       </c>
+      <c r="D2">
+        <v>10.1930017471313</v>
+      </c>
+      <c r="E2">
+        <v>84536.163935301302</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -476,6 +482,12 @@
       <c r="C3">
         <v>437.02988582638801</v>
       </c>
+      <c r="D3">
+        <v>36.304143190383897</v>
+      </c>
+      <c r="E3">
+        <v>422.20281957589998</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -487,6 +499,12 @@
       <c r="C4">
         <v>83.640238593747497</v>
       </c>
+      <c r="D4">
+        <v>1.7880287170410101</v>
+      </c>
+      <c r="E4">
+        <v>77.962632468286301</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -498,6 +516,12 @@
       <c r="C5">
         <v>52.277039593243302</v>
       </c>
+      <c r="D5">
+        <v>3.8880331516265798</v>
+      </c>
+      <c r="E5">
+        <v>51.245448776350699</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -509,6 +533,12 @@
       <c r="C6">
         <v>469.51502138207002</v>
       </c>
+      <c r="D6">
+        <v>138.37797021865799</v>
+      </c>
+      <c r="E6">
+        <v>472.40345274705402</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -520,6 +550,12 @@
       <c r="C7">
         <v>110.81027365826399</v>
       </c>
+      <c r="D7">
+        <v>1.1620013713836601</v>
+      </c>
+      <c r="E7">
+        <v>107.932725236907</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -530,6 +566,12 @@
       </c>
       <c r="C8">
         <v>22.683860208089801</v>
+      </c>
+      <c r="D8">
+        <v>1.36300325393676</v>
+      </c>
+      <c r="E8">
+        <v>20.597941182325702</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MachineLearning\FASTPAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A1B1EF-2B0B-42C2-8386-DF96551886EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875D0034-1E9A-49F6-85E4-D41885F1FA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A40601C-6529-4D32-B31F-70711143F015}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Datasets</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>PAM TD</t>
+  </si>
+  <si>
+    <t>FastPAM with pivotal sampling time</t>
+  </si>
+  <si>
+    <t>FastPAM with pivotal sampling TD</t>
   </si>
 </sst>
 </file>
@@ -423,154 +429,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9A12FE-83AA-4C08-BB1A-62D13878C5CD}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="62.77734375" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
+        <v>0.61200284957885698</v>
+      </c>
+      <c r="C2" s="1">
+        <v>84556.113650138897</v>
+      </c>
+      <c r="D2">
         <v>3.4079992771148602</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>84641.883939461797</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>10.1930017471313</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>84536.163935301302</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
+        <v>0.84599876403808505</v>
+      </c>
+      <c r="C3" s="1">
+        <v>444.45822590678802</v>
+      </c>
+      <c r="D3">
         <v>11.649033546447701</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>437.02988582638801</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>36.304143190383897</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>422.20281957589998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
+        <v>6.6999435424804604E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>79.302503212160104</v>
+      </c>
+      <c r="D4">
         <v>0.50396990776062001</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>83.640238593747497</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>1.7880287170410101</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>77.962632468286301</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
+        <v>0.127999067306518</v>
+      </c>
+      <c r="C5" s="1">
+        <v>52.166042435434299</v>
+      </c>
+      <c r="D5">
         <v>1.20500040054321</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>52.277039593243302</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>3.8880331516265798</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>51.245448776350699</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
+        <v>4.2050015926361004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>485.36291261077599</v>
+      </c>
+      <c r="D6">
         <v>53.707425117492598</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>469.51502138207002</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>138.37797021865799</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>472.40345274705402</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
+        <v>1.6000032424926699E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>108.825551225949</v>
+      </c>
+      <c r="D7">
         <v>0.53996753692626898</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>110.81027365826399</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>1.1620013713836601</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>107.932725236907</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
+        <v>2.69975662231445E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>21.716535738344199</v>
+      </c>
+      <c r="D8">
         <v>0.60400152206420898</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>22.683860208089801</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>1.36300325393676</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>20.597941182325702</v>
       </c>
     </row>
